--- a/smartgrid/dbdata/Spreadsheets/UCIrvine.xlsx
+++ b/smartgrid/dbdata/Spreadsheets/UCIrvine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="93">
   <si>
     <t>Course Number</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Methods III: Modeling, Economics, and Management</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -679,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -724,6 +727,15 @@
       <c r="D2">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
@@ -741,6 +753,18 @@
       <c r="D3">
         <v>17</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
@@ -755,6 +779,18 @@
       <c r="D4">
         <v>17</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
@@ -769,6 +805,18 @@
       <c r="D5">
         <v>17</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -783,6 +831,18 @@
       <c r="D6">
         <v>17</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -797,6 +857,18 @@
       <c r="D7">
         <v>17</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
@@ -811,6 +883,18 @@
       <c r="D8">
         <v>17</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
@@ -822,6 +906,18 @@
       <c r="D9">
         <v>18</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
@@ -833,6 +929,18 @@
       <c r="D10">
         <v>18</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
@@ -844,6 +952,18 @@
       <c r="D11">
         <v>18</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
@@ -855,6 +975,18 @@
       <c r="D12">
         <v>18</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
@@ -866,6 +998,18 @@
       <c r="D13">
         <v>18</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
@@ -877,6 +1021,18 @@
       <c r="D14">
         <v>18</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
@@ -888,6 +1044,18 @@
       <c r="D15">
         <v>19</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -899,8 +1067,20 @@
       <c r="D16">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -910,8 +1090,20 @@
       <c r="D17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -921,8 +1113,20 @@
       <c r="D18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -932,8 +1136,20 @@
       <c r="D19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -943,8 +1159,20 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -954,8 +1182,20 @@
       <c r="D21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -965,8 +1205,20 @@
       <c r="D22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -976,8 +1228,20 @@
       <c r="D23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -987,8 +1251,20 @@
       <c r="D24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -998,8 +1274,20 @@
       <c r="D25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1009,8 +1297,20 @@
       <c r="D26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1020,8 +1320,20 @@
       <c r="D27">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1031,8 +1343,20 @@
       <c r="D28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1042,8 +1366,20 @@
       <c r="D29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1053,8 +1389,20 @@
       <c r="D30">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1064,8 +1412,20 @@
       <c r="D31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1075,8 +1435,20 @@
       <c r="D32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1086,8 +1458,20 @@
       <c r="D33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1097,8 +1481,20 @@
       <c r="D34">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>125</v>
       </c>
@@ -1108,8 +1504,20 @@
       <c r="D35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>132</v>
       </c>
@@ -1119,8 +1527,20 @@
       <c r="D36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>134</v>
       </c>
@@ -1130,8 +1550,20 @@
       <c r="D37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>137</v>
       </c>
@@ -1141,8 +1573,20 @@
       <c r="D38">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>167</v>
       </c>
@@ -1152,8 +1596,20 @@
       <c r="D39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>168</v>
       </c>
@@ -1163,8 +1619,20 @@
       <c r="D40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>201</v>
       </c>
@@ -1174,8 +1642,20 @@
       <c r="D41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>202</v>
       </c>
@@ -1185,8 +1665,20 @@
       <c r="D42">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>203</v>
       </c>
@@ -1196,8 +1688,20 @@
       <c r="D43">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>221</v>
       </c>
@@ -1207,8 +1711,20 @@
       <c r="D44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>222</v>
       </c>
@@ -1218,8 +1734,20 @@
       <c r="D45">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>223</v>
       </c>
@@ -1229,8 +1757,20 @@
       <c r="D46">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>224</v>
       </c>
@@ -1240,8 +1780,20 @@
       <c r="D47">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>235</v>
       </c>
@@ -1251,8 +1803,20 @@
       <c r="D48">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>236</v>
       </c>
@@ -1262,8 +1826,20 @@
       <c r="D49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -1272,6 +1848,18 @@
       </c>
       <c r="D50">
         <v>21</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
